--- a/src/assets/data/2_Gestion de la Calidad/Caracterizacion/GC-CRT-001 Caracterizacion de procesos Gestion de la Calidad.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Caracterizacion/GC-CRT-001 Caracterizacion de procesos Gestion de la Calidad.xlsx
@@ -1743,14 +1743,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="838200" cy="800100"/>
+    <xdr:ext cx="1009650" cy="1123950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1771,14 +1771,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1123950" cy="714375"/>
+    <xdr:ext cx="1581150" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -18423,6 +18423,113 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="D48:O48"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="E45:H45"/>
@@ -18430,146 +18537,39 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="I43:O43"/>
     <mergeCell ref="L44:O44"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="D48:O48"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="G20:J20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G17:J17"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.2755905511811024" footer="0.0" header="0.0" left="0.2755905511811024" right="0.2755905511811024" top="0.35433070866141736"/>
